--- a/starrail/output/xlsx/全成就-单表.xlsx
+++ b/starrail/output/xlsx/全成就-单表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Python\GameData\starrail\output\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{994DD2C2-0344-4BC0-917E-49E711AE270D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{271303B1-1D17-4E3E-AF78-2B3B9F3FC192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="495" windowWidth="14475" windowHeight="11505" xr2:uid="{9AEF1E2C-3C84-4540-8ED4-F601A85B87BE}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" xr2:uid="{B023AF45-6F00-4630-9B2B-19BCF75B8E40}"/>
   </bookViews>
   <sheets>
     <sheet name="全成就" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="1054">
   <si>
     <t>星穹铁道1.1版本全成就</t>
   </si>
@@ -1362,7 +1362,7 @@
     <t>极限求生</t>
   </si>
   <si>
-    <t>当队伍中4名角色生命值百分比同时小于等于0%的情况下获得战斗胜利</t>
+    <t>当队伍中4名角色生命值百分比同时小于等于5%的情况下获得战斗胜利</t>
   </si>
   <si>
     <t>子弹时间</t>
@@ -1380,7 +1380,7 @@
     <t>大炮打蚊子</t>
   </si>
   <si>
-    <t>单次攻击对当前生命值百分比小于等于0%的敌方目标造成大于等于20000点伤害</t>
+    <t>单次攻击对当前生命值百分比小于等于1%的敌方目标造成大于等于20000点伤害</t>
   </si>
   <si>
     <t>主角的特权</t>
@@ -1797,7 +1797,7 @@
     <t>最初和最终的自由</t>
   </si>
   <si>
-    <t>「模拟宇宙」内，进入战斗时我方4名角色当前生命值百分比均小于等于0%</t>
+    <t>「模拟宇宙」内，进入战斗时我方4名角色当前生命值百分比均小于等于1%</t>
   </si>
   <si>
     <t>果壳中的宇宙</t>
@@ -1830,7 +1830,7 @@
     <t>二十四首情诗与一首绝望的歌</t>
   </si>
   <si>
-    <t>「模拟宇宙」战斗胜利时，我方所有角色当前生命值百分比小于等于0%</t>
+    <t>「模拟宇宙」战斗胜利时，我方所有角色当前生命值百分比小于等于5%</t>
   </si>
   <si>
     <t>黑暗中跳舞的心脏叫月亮</t>
@@ -2322,7 +2322,7 @@
     <t>求不得</t>
   </si>
   <si>
-    <t>单场战斗中，使用我方角色刃在单次攻击中从血量小于等于&lt;unbreak&gt;#1[i]%&lt;/unbreak&gt;恢复至大于等于&lt;unbreak&gt;30%&lt;/unbreak&gt;&lt;unbreak&gt;#2[i]&lt;/unbreak&gt;次</t>
+    <t>多事</t>
   </si>
   <si>
     <t>地下守护者</t>
@@ -2346,19 +2346,19 @@
     <t>长生梦短</t>
   </si>
   <si>
-    <t>击败「药王秘传」魁首</t>
+    <t>如果死而复生，就再杀一次…</t>
   </si>
   <si>
     <t>饮月君临</t>
   </si>
   <si>
-    <t>目睹丹恒分开鳞渊境的海水</t>
+    <t>海若不隐珠，骊龙吐明月</t>
   </si>
   <si>
     <t>若木折枝</t>
   </si>
   <si>
-    <t>帮助景元击败幻胧</t>
+    <t>一切阴谋诡计必将覆灭</t>
   </si>
   <si>
     <t>愿者不上钩</t>
@@ -2436,7 +2436,763 @@
     <t>真正的自由意志</t>
   </si>
   <si>
-    <t>生成于  2023-07-19 22:11</t>
+    <t>《菲雅尔塔的春天》</t>
+  </si>
+  <si>
+    <t>使用「欢愉」命途通关「模拟宇宙：寰宇蝗灾」时，累计获得12种不同的「快乐」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3	</t>
+  </si>
+  <si>
+    <t>秋狝冬狩</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，使用使用「巡猎」命途在单一位面通过战斗捕捉8只以上扑满</t>
+  </si>
+  <si>
+    <t>心房客</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，使用「记忆」命途连续6次复制【奖励】区域</t>
+  </si>
+  <si>
+    <t>铁血战士</t>
+  </si>
+  <si>
+    <t>使用「毁灭」命途通关「模拟宇宙：寰宇蝗灾」时，获得40场战斗胜利</t>
+  </si>
+  <si>
+    <t>象征交换与死亡</t>
+  </si>
+  <si>
+    <t>使用「虚无」命途通关「模拟宇宙：寰宇蝗灾」时，进入15个【空白】区域</t>
+  </si>
+  <si>
+    <t>模拟宇宙不是一天建成的</t>
+  </si>
+  <si>
+    <t>使用「存护」命途通关「模拟宇宙：寰宇蝗灾」时，为8种不同类型的区域附加【基石】</t>
+  </si>
+  <si>
+    <t>弹指一挥</t>
+  </si>
+  <si>
+    <t>使用「丰饶」命途通关「模拟宇宙：寰宇蝗灾」时，倒计时大于等于80</t>
+  </si>
+  <si>
+    <t>重返克兰达夫</t>
+  </si>
+  <si>
+    <t>使用「繁育」命途通关「模拟宇宙：寰宇蝗灾」时，进入15次【战斗•虫群】、【事件•虫群】或【首领•虫群】区域</t>
+  </si>
+  <si>
+    <t>《欢迎来到猴子展厅》</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•欢愉100次</t>
+  </si>
+  <si>
+    <t>飞砾雨散，刚瘅必毙</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•巡猎100次</t>
+  </si>
+  <si>
+    <t>永恒和一日</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•记忆100次</t>
+  </si>
+  <si>
+    <t>作为表象的世界</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•虚无100次</t>
+  </si>
+  <si>
+    <t>焦土政策</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•毁灭100次</t>
+  </si>
+  <si>
+    <t>声闻缘觉</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•丰饶100次</t>
+  </si>
+  <si>
+    <t>均匀成核</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•存护100次</t>
+  </si>
+  <si>
+    <t>玛士撒拉之子</t>
+  </si>
+  <si>
+    <t>「模拟宇宙：寰宇蝗灾」内，累计投掷觐见之骰•繁育100次</t>
+  </si>
+  <si>
+    <t>智库长</t>
+  </si>
+  <si>
+    <t>通关「模拟宇宙：寰宇蝗灾」时，拥有的宇宙碎片数量大于等于9999</t>
+  </si>
+  <si>
+    <t>手可摘星辰</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」的事件星际和平公司「升职记」中&lt;u&gt;掌握了无尽权力&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>Q先生</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，在同一个【交易】区域内购买所有祝福商店与奇物商店的商品</t>
+  </si>
+  <si>
+    <t>欢迎来到瓦尔哈拉</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，在事件天才俱乐部#55余清涂触发的战斗中失败</t>
+  </si>
+  <si>
+    <t>无敌破坏王Ⅱ</t>
+  </si>
+  <si>
+    <t>在一次「模拟宇宙：寰宇蝗灾」中，本次挑战累计击破可破坏物数量大于等于100</t>
+  </si>
+  <si>
+    <t>牧场物语</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」的一个【冒险】区域内捕捉扑满数量大于等于16</t>
+  </si>
+  <si>
+    <t>不同命途的房间</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，点亮1个隐藏的【行者之道】</t>
+  </si>
+  <si>
+    <t>独唱团</t>
+  </si>
+  <si>
+    <t>在一次「模拟宇宙：寰宇蝗灾」中，发生2次回响交错</t>
+  </si>
+  <si>
+    <t>存护还是毁灭？</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」的【事件】区域中，完成1次命途的抉择</t>
+  </si>
+  <si>
+    <t>命运转盘</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」的【事件】区域中，完成所有命途的抉择</t>
+  </si>
+  <si>
+    <t>笃定发生</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，累计使用10次作弊</t>
+  </si>
+  <si>
+    <t>回到未来</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，累计使用50次重投</t>
+  </si>
+  <si>
+    <t>永恒国度的终焉</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，使用「虚无」以外的命途进入【空白】区域</t>
+  </si>
+  <si>
+    <t>乘坐彗星</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，在任意【冒险】区域达成所有目标</t>
+  </si>
+  <si>
+    <t>维兰德汤谷调查员</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」中，使用「繁育」以外的命途累计进入15次【战斗•虫群】、【事件•虫群】或【首领•虫群】区域</t>
+  </si>
+  <si>
+    <t>质量中继器</t>
+  </si>
+  <si>
+    <t>在「模拟宇宙：寰宇蝗灾」通关时，使【位面紊乱！】的【扰动等级】大于等于20级</t>
+  </si>
+  <si>
+    <t>虫巢意志</t>
+  </si>
+  <si>
+    <t>「模拟宇宙」内，累计解锁1个「繁育」命途的祝福</t>
+  </si>
+  <si>
+    <t>第四阶段</t>
+  </si>
+  <si>
+    <t>通关「模拟宇宙」时，携带「繁育」命途的祝福数量大于等于10</t>
+  </si>
+  <si>
+    <t>四百击</t>
+  </si>
+  <si>
+    <t>「模拟宇宙」内，单场战斗中累计使用至少40次普攻并获胜</t>
+  </si>
+  <si>
+    <t>宇宙静悄悄</t>
+  </si>
+  <si>
+    <t>通关「模拟宇宙：寰宇蝗灾」全部寰宇蝗灾剧情</t>
+  </si>
+  <si>
+    <t>异乡异客</t>
+  </si>
+  <si>
+    <t>收集「模拟宇宙：寰宇蝗灾」全部开拓秘闻剧情</t>
+  </si>
+  <si>
+    <t>轨道核打击</t>
+  </si>
+  <si>
+    <t>完成「模拟宇宙：寰宇蝗灾」第五难度</t>
+  </si>
+  <si>
+    <t>逐蝗疫于四裔</t>
+  </si>
+  <si>
+    <t>收集「寰宇蝗灾」的章节「巡猎Ⅰ」</t>
+  </si>
+  <si>
+    <t>巴别塔之梦</t>
+  </si>
+  <si>
+    <t>收集「寰宇蝗灾」的章节「存护Ⅱ」</t>
+  </si>
+  <si>
+    <t>看哪，这人</t>
+  </si>
+  <si>
+    <t>收集「寰宇蝗灾」的章节「虚无Ⅰ」</t>
+  </si>
+  <si>
+    <t>先别急</t>
+  </si>
+  <si>
+    <t>在被敌方追击状态下坚持15秒不进入战斗</t>
+  </si>
+  <si>
+    <t>茶浓于水</t>
+  </si>
+  <si>
+    <t>连续3天每天饮用「仙人快乐茶」</t>
+  </si>
+  <si>
+    <t>罗浮老饕</t>
+  </si>
+  <si>
+    <t>连续3天每天饮用「苏打豆汁儿」</t>
+  </si>
+  <si>
+    <t>只是张图片</t>
+  </si>
+  <si>
+    <t>首次更换手机壁纸</t>
+  </si>
+  <si>
+    <t>超越语言的艺术</t>
+  </si>
+  <si>
+    <t>首次更换短信和聊天对话框</t>
+  </si>
+  <si>
+    <t>帕姆总冠军！</t>
+  </si>
+  <si>
+    <t>累计对5个好友发送帕姆的表情图片</t>
+  </si>
+  <si>
+    <t>尽在不言中</t>
+  </si>
+  <si>
+    <t>累计发送20张星穹列车成员的表情图片</t>
+  </si>
+  <si>
+    <t>致世界上的另一个我</t>
+  </si>
+  <si>
+    <t>收到另一个性别的开拓者表情图片</t>
+  </si>
+  <si>
+    <t>生者为过客</t>
+  </si>
+  <si>
+    <t>告别仙舟「罗浮」</t>
+  </si>
+  <si>
+    <t>令金人巷再次繁荣！</t>
+  </si>
+  <si>
+    <t>完成任务「金戺重喧•其四」，赢下金人巷商业区竞标</t>
+  </si>
+  <si>
+    <t>安逸的晚间七点</t>
+  </si>
+  <si>
+    <t>完整收听1期《星际和平播报》</t>
+  </si>
+  <si>
+    <t>草槎借箭</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，在货运星槎上码放6个金人司阍</t>
+  </si>
+  <si>
+    <t>降维打击</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，在物流规划的界面里点击24艘货运星槎</t>
+  </si>
+  <si>
+    <t>聚宝盆</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，为金人巷商会赚取1000000商会储值金</t>
+  </si>
+  <si>
+    <t>第八号商铺</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，与霍三哥建立起商业合作</t>
+  </si>
+  <si>
+    <t>（系统自动发送）</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，完成「鹤运物流」的客制运单</t>
+  </si>
+  <si>
+    <t>隔窗索唤，市食盈笛</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，完成街巷事件「谛听寻人」</t>
+  </si>
+  <si>
+    <t>千金散尽还复来</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，消费1280000商会储值金</t>
+  </si>
+  <si>
+    <t>危险荷载</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，在一艘货运星槎上码放货物达到81</t>
+  </si>
+  <si>
+    <t>夜市：天际线</t>
+  </si>
+  <si>
+    <t>「金人旧巷市廛喧」中，任意一家商铺的航线规划分数达到81</t>
+  </si>
+  <si>
+    <t>往复不止</t>
+  </si>
+  <si>
+    <t>向克利欧讲述陶德一事的真相</t>
+  </si>
+  <si>
+    <t>岔路新生</t>
+  </si>
+  <si>
+    <t>向克利欧隐瞒陶德一事的真相</t>
+  </si>
+  <si>
+    <t>忘川之水何其苦</t>
+  </si>
+  <si>
+    <t>完成同行任务「全面回忆」</t>
+  </si>
+  <si>
+    <t>雪原的原风景</t>
+  </si>
+  <si>
+    <t>完成同行任务「比雪原更遥远」</t>
+  </si>
+  <si>
+    <t>旧时雨露</t>
+  </si>
+  <si>
+    <t>完成同行任务「龙返其乡」</t>
+  </si>
+  <si>
+    <t>只剩下雪白的灰</t>
+  </si>
+  <si>
+    <t>完成同行任务「我的挚爱，我的血肉」</t>
+  </si>
+  <si>
+    <t>鹤运物流，使命不达</t>
+  </si>
+  <si>
+    <t>调查所有金人巷的特殊快递箱</t>
+  </si>
+  <si>
+    <t>道可道，无间道</t>
+  </si>
+  <si>
+    <t>见证永仁隐藏身份的故事</t>
+  </si>
+  <si>
+    <t>破冰镐</t>
+  </si>
+  <si>
+    <t>使用玲可击败被冻住的敌人</t>
+  </si>
+  <si>
+    <t>以朗道之名！</t>
+  </si>
+  <si>
+    <t>使用同时包含希露瓦、杰帕德、玲可的队伍获得1场战斗的胜利</t>
+  </si>
+  <si>
+    <t>演武仪典：重剑试</t>
+  </si>
+  <si>
+    <t>使用我方角色素裳对战彦卿时完成制胜一击</t>
+  </si>
+  <si>
+    <t>演武仪典：细剑试</t>
+  </si>
+  <si>
+    <t>使用我方角色罗刹对战彦卿时完成制胜一击</t>
+  </si>
+  <si>
+    <t>最佳第五…虫？</t>
+  </si>
+  <si>
+    <t>利用次蛰虫或幼蛰虫施放的「蛰亡语」消灭虫群•真蛰虫</t>
+  </si>
+  <si>
+    <t>我即是虫群</t>
+  </si>
+  <si>
+    <t>当虫群•真蛰虫施放「虫群突袭」时，场上不存在幼蛰虫或次蛰虫</t>
+  </si>
+  <si>
+    <t>只是虫子</t>
+  </si>
+  <si>
+    <t>单次攻击中同时消灭2只虫群•真蛰虫</t>
+  </si>
+  <si>
+    <t>演武仪典：阵刀试</t>
+  </si>
+  <si>
+    <t>使用我方角色景元对战彦卿时完成制胜一击</t>
+  </si>
+  <si>
+    <t>让炮弹飞</t>
+  </si>
+  <si>
+    <t>探索中使用娜塔莎攻击超远距离敌人并进入战斗</t>
+  </si>
+  <si>
+    <t>三龙出海</t>
+  </si>
+  <si>
+    <t>单场战斗中连续3次在丹恒•饮月的回合施放「盘拏耀跃」</t>
+  </si>
+  <si>
+    <t>求生、求生、求生</t>
+  </si>
+  <si>
+    <t>单场战斗使用玲可提高3次友方生命上限</t>
+  </si>
+  <si>
+    <t>呵，银河大乐透？</t>
+  </si>
+  <si>
+    <t>单场战斗中，符玄累计触发4次天赋「乾清坤夷，否极泰来」的生命回复效果</t>
+  </si>
+  <si>
+    <t>晴天收伞，雨天借伞</t>
+  </si>
+  <si>
+    <t>（再次）帮助雅利洛-Ⅵ和贝洛伯格解决巨大的危机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4	</t>
+  </si>
+  <si>
+    <t>登入名人堂</t>
+  </si>
+  <si>
+    <t>在「以太战线•星际决胜庆典」中获得「冠军首席」称号</t>
+  </si>
+  <si>
+    <t>雪山之巅的王者</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，于永冬岭结束宿命的对决</t>
+  </si>
+  <si>
+    <t>剑折铸复良</t>
+  </si>
+  <si>
+    <t>完成同行任务「云无留迹」</t>
+  </si>
+  <si>
+    <t>收服以太灵了！</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，获得所有以太灵</t>
+  </si>
+  <si>
+    <t>以太战线大师</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，「决胜者评级」达到最高级</t>
+  </si>
+  <si>
+    <t>超链接路人王</t>
+  </si>
+  <si>
+    <t>在「以太战线•超链接对决」中击败所有对手</t>
+  </si>
+  <si>
+    <t>凛风徽章</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，完成残响回廊的决胜乐园的所有考验</t>
+  </si>
+  <si>
+    <t>镕金徽章</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，完成流云渡的决胜乐园的所有考验</t>
+  </si>
+  <si>
+    <t>智才徽章</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，完成空间站「黑塔」的决胜乐园的所有考验</t>
+  </si>
+  <si>
+    <t>假面徽章</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，完成大矿区的决胜乐园的所有考验</t>
+  </si>
+  <si>
+    <t>我们是冠军？</t>
+  </si>
+  <si>
+    <t>在「以太战线」中，获得一场「表演赛」的胜利</t>
+  </si>
+  <si>
+    <t>铁齿铜牙</t>
+  </si>
+  <si>
+    <t>聆听小小西衍的节目</t>
+  </si>
+  <si>
+    <t>说学逗唱</t>
+  </si>
+  <si>
+    <t>聆听小往小来的节目</t>
+  </si>
+  <si>
+    <t>腿只是装饰而已</t>
+  </si>
+  <si>
+    <t>为造物引擎制定一份离谱的策划案</t>
+  </si>
+  <si>
+    <t>动起来啊…造物引擎！</t>
+  </si>
+  <si>
+    <t>为造物引擎制定一份靠谱的策划案</t>
+  </si>
+  <si>
+    <t>这游戏没有版本更新吗？</t>
+  </si>
+  <si>
+    <t>获得所有「以太拓展芯片」</t>
+  </si>
+  <si>
+    <t>北风造英雄</t>
+  </si>
+  <si>
+    <t>在「冬兵进行曲」难度Ⅲ击败门后的杰帕德</t>
+  </si>
+  <si>
+    <t>胜利，然后是再见</t>
+  </si>
+  <si>
+    <t>在尘埃落定后归还{TEXTJOIN#54}</t>
+  </si>
+  <si>
+    <t>结束，然后是开始</t>
+  </si>
+  <si>
+    <t>在尘埃落定后留下{TEXTJOIN#54}</t>
+  </si>
+  <si>
+    <t>未来的第一步</t>
+  </si>
+  <si>
+    <t>关心贝洛伯格的发展动态</t>
+  </si>
+  <si>
+    <t>无机的智慧果</t>
+  </si>
+  <si>
+    <t>获得阅读物《螺丝咕姆的留言》</t>
+  </si>
+  <si>
+    <t>冰原熊之旅</t>
+  </si>
+  <si>
+    <t>与冰原熊幼崽亲切互动</t>
+  </si>
+  <si>
+    <t>谢谢你，佩拉</t>
+  </si>
+  <si>
+    <t>帮助凡迪雅小姐完成赌注</t>
+  </si>
+  <si>
+    <t>钢铁与玩具</t>
+  </si>
+  <si>
+    <t>把造物工程的废料交给本杰明</t>
+  </si>
+  <si>
+    <t>钢铁与路灯</t>
+  </si>
+  <si>
+    <t>把造物工程的废料交给佩拉</t>
+  </si>
+  <si>
+    <t>在巨像的见证下</t>
+  </si>
+  <si>
+    <t>从冻结的栏杆上保住舌头</t>
+  </si>
+  <si>
+    <t>危险动作，请勿模仿</t>
+  </si>
+  <si>
+    <t>再次因打破容器受到教训</t>
+  </si>
+  <si>
+    <t>首先，第一个</t>
+  </si>
+  <si>
+    <t>拥有一个狂热粉丝</t>
+  </si>
+  <si>
+    <t>假面的告白</t>
+  </si>
+  <si>
+    <t>查看来历不明的忆泡</t>
+  </si>
+  <si>
+    <t>冰圾淋</t>
+  </si>
+  <si>
+    <t>从冰封垃圾桶中获得垃圾</t>
+  </si>
+  <si>
+    <t>演武仪典：长枪试</t>
+  </si>
+  <si>
+    <t>使用我方角色丹恒对战彦卿时完成制胜一击</t>
+  </si>
+  <si>
+    <t>演武仪典…？</t>
+  </si>
+  <si>
+    <t>使用我方角色彦卿对战彦卿时完成制胜一击</t>
+  </si>
+  <si>
+    <t>演武仪典：心剑试</t>
+  </si>
+  <si>
+    <t>使用我方角色镜流对战彦卿时完成制胜一击</t>
+  </si>
+  <si>
+    <t>人有四名，代价…</t>
+  </si>
+  <si>
+    <t>在单场战斗中使用我方角色镜流把任意队友生命值消耗至1</t>
+  </si>
+  <si>
+    <t>好…好方</t>
+  </si>
+  <si>
+    <t>大量投喂扑满</t>
+  </si>
+  <si>
+    <t>卧室里的战争</t>
+  </si>
+  <si>
+    <t>使用我方账账击败一只扑满</t>
+  </si>
+  <si>
+    <t>绝对零度</t>
+  </si>
+  <si>
+    <t>使用镜流与定分枪互动</t>
+  </si>
+  <si>
+    <t>过程大于结果</t>
+  </si>
+  <si>
+    <t>从流云渡的茂贞手中购买1个逾期未取的邮包</t>
+  </si>
+  <si>
+    <t>大安事事昌</t>
+  </si>
+  <si>
+    <t>在占卜店首次抽到吉签</t>
+  </si>
+  <si>
+    <t>空亡事不长</t>
+  </si>
+  <si>
+    <t>在占卜店首次抽到凶签</t>
+  </si>
+  <si>
+    <t>速喜朱雀吉行方</t>
+  </si>
+  <si>
+    <t>在占卜店首次抽到摸鱼签</t>
+  </si>
+  <si>
+    <t>贵人路上好商量</t>
+  </si>
+  <si>
+    <t>在占卜店首次抽到闭目签</t>
+  </si>
+  <si>
+    <t>木人：星穹铁道</t>
+  </si>
+  <si>
+    <t>使用「自动木人桩」代为完成3场战斗</t>
+  </si>
+  <si>
+    <t>生成于  2023-10-11 22:39</t>
   </si>
   <si>
     <t>米游社: 烂柯Lankei</t>
@@ -2881,8 +3637,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F610074-7118-43D1-B049-A2D0160FA24A}">
-  <dimension ref="A1:H392"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14594AF1-B1C2-4B0E-8820-795154B61143}">
+  <dimension ref="A1:H517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12489,7 +13245,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>4072504</v>
       </c>
@@ -13009,39 +13765,3288 @@
         <v>742</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A391" s="4" t="s">
+    <row r="391" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A391" s="2">
+        <v>4092601</v>
+      </c>
+      <c r="B391" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="B391" s="4"/>
-      <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
-      <c r="E391" s="4"/>
-      <c r="F391" s="4"/>
-      <c r="G391" s="4"/>
-      <c r="H391" s="4"/>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A392" s="4" t="s">
+      <c r="C391" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="B392" s="4"/>
-      <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
-      <c r="E392" s="4"/>
-      <c r="F392" s="4"/>
-      <c r="G392" s="4"/>
-      <c r="H392" s="4"/>
+      <c r="D391" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E391" s="2">
+        <v>5</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H391" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>4092602</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E392" s="1">
+        <v>5</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A393" s="2">
+        <v>4092603</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E393" s="2">
+        <v>5</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G393" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H393" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>4092604</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E394" s="1">
+        <v>5</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A395" s="2">
+        <v>4092605</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E395" s="2">
+        <v>5</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G395" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H395" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>4092606</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E396" s="1">
+        <v>5</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A397" s="2">
+        <v>4092607</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E397" s="2">
+        <v>5</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H397" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>4092608</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E398" s="1">
+        <v>5</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A399" s="2">
+        <v>4092609</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E399" s="2">
+        <v>5</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H399" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>4092610</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E400" s="1">
+        <v>5</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A401" s="2">
+        <v>4092611</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E401" s="2">
+        <v>5</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G401" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H401" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>4092612</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E402" s="1">
+        <v>5</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A403" s="2">
+        <v>4092613</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E403" s="2">
+        <v>5</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H403" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>4092614</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E404" s="1">
+        <v>5</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A405" s="2">
+        <v>4092615</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E405" s="2">
+        <v>5</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>4092616</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E406" s="1">
+        <v>5</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A407" s="2">
+        <v>4092617</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E407" s="2">
+        <v>10</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G407" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>4092618</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E408" s="1">
+        <v>5</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A409" s="2">
+        <v>4092619</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E409" s="2">
+        <v>5</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G409" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H409" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>4092620</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E410" s="1">
+        <v>5</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A411" s="2">
+        <v>4092621</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E411" s="2">
+        <v>5</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G411" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H411" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>4092622</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E412" s="1">
+        <v>5</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A413" s="2">
+        <v>4092623</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E413" s="2">
+        <v>5</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>4092624</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E414" s="1">
+        <v>5</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A415" s="2">
+        <v>4092625</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E415" s="2">
+        <v>5</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G415" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H415" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>4092626</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E416" s="1">
+        <v>5</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A417" s="2">
+        <v>4092627</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E417" s="2">
+        <v>5</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G417" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>4092628</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E418" s="1">
+        <v>5</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A419" s="2">
+        <v>4092629</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E419" s="2">
+        <v>5</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H419" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>4092630</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E420" s="1">
+        <v>5</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A421" s="2">
+        <v>4092631</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E421" s="2">
+        <v>5</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>4092632</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E422" s="1">
+        <v>5</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A423" s="2">
+        <v>4092633</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E423" s="2">
+        <v>5</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G423" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>4092634</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E424" s="1">
+        <v>5</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A425" s="2">
+        <v>4092635</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E425" s="2">
+        <v>5</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G425" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H425" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>4092636</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E426" s="1">
+        <v>10</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A427" s="2">
+        <v>4092637</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E427" s="2">
+        <v>10</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>4092638</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E428" s="1">
+        <v>5</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A429" s="2">
+        <v>4092639</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E429" s="2">
+        <v>5</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G429" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H429" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>4092640</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E430" s="1">
+        <v>5</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A431" s="2">
+        <v>4092641</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E431" s="2">
+        <v>5</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G431" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H431" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>4082601</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E432" s="1">
+        <v>5</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A433" s="2">
+        <v>4082602</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E433" s="2">
+        <v>5</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G433" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>4082603</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E434" s="1">
+        <v>5</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A435" s="2">
+        <v>4082604</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E435" s="2">
+        <v>5</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G435" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H435" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>4082605</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E436" s="1">
+        <v>5</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A437" s="2">
+        <v>4082606</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E437" s="2">
+        <v>5</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G437" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H437" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>4082607</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E438" s="1">
+        <v>5</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A439" s="2">
+        <v>4082608</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E439" s="2">
+        <v>5</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H439" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>4032601</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E440" s="1">
+        <v>10</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H440" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A441" s="2">
+        <v>4052601</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E441" s="2">
+        <v>10</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G441" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H441" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>4052603</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E442" s="1">
+        <v>5</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H442" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A443" s="2">
+        <v>4052604</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E443" s="2">
+        <v>5</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H443" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>4052605</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E444" s="1">
+        <v>10</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A445" s="2">
+        <v>4052606</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E445" s="2">
+        <v>5</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G445" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H445" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>4052607</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E446" s="1">
+        <v>5</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A447" s="2">
+        <v>4052608</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E447" s="2">
+        <v>5</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G447" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H447" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>4052609</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E448" s="1">
+        <v>5</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H448" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A449" s="2">
+        <v>4052610</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E449" s="2">
+        <v>5</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G449" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H449" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>4052611</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E450" s="1">
+        <v>5</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H450" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A451" s="2">
+        <v>4052612</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E451" s="2">
+        <v>5</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G451" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H451" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>4052613</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E452" s="1">
+        <v>5</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A453" s="2">
+        <v>4052614</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E453" s="2">
+        <v>5</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H453" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>4052615</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E454" s="1">
+        <v>5</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H454" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A455" s="2">
+        <v>4052616</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E455" s="2">
+        <v>5</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G455" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H455" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>4052617</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E456" s="1">
+        <v>5</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H456" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A457" s="2">
+        <v>4052618</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E457" s="2">
+        <v>5</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G457" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H457" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>4052619</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E458" s="1">
+        <v>5</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A459" s="2">
+        <v>4052620</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E459" s="2">
+        <v>5</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G459" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H459" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>4072601</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E460" s="1">
+        <v>5</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H460" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A461" s="2">
+        <v>4072602</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E461" s="2">
+        <v>5</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G461" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H461" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>4072603</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E462" s="1">
+        <v>5</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H462" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A463" s="2">
+        <v>4072604</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E463" s="2">
+        <v>5</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H463" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>4072605</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E464" s="1">
+        <v>5</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A465" s="2">
+        <v>4072606</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E465" s="2">
+        <v>5</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H465" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>4072607</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E466" s="1">
+        <v>5</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H466" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A467" s="2">
+        <v>4072608</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E467" s="2">
+        <v>5</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H467" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>4072609</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E468" s="1">
+        <v>5</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H468" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A469" s="2">
+        <v>4072610</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E469" s="2">
+        <v>5</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H469" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>4072611</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E470" s="1">
+        <v>5</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A471" s="2">
+        <v>4072612</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E471" s="2">
+        <v>5</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G471" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H471" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>4032701</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E472" s="1">
+        <v>10</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H472" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A473" s="2">
+        <v>4052701</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E473" s="2">
+        <v>10</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G473" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H473" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>4052702</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E474" s="1">
+        <v>5</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A475" s="2">
+        <v>4052703</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E475" s="2">
+        <v>5</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G475" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H475" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>4052704</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E476" s="1">
+        <v>5</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H476" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A477" s="2">
+        <v>4052705</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E477" s="2">
+        <v>5</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G477" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H477" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>4052706</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E478" s="1">
+        <v>5</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A479" s="2">
+        <v>4052707</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E479" s="2">
+        <v>5</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G479" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H479" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>4052708</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E480" s="1">
+        <v>5</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H480" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A481" s="2">
+        <v>4052709</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E481" s="2">
+        <v>5</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G481" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H481" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>4052710</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E482" s="1">
+        <v>5</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H482" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A483" s="2">
+        <v>4052711</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E483" s="2">
+        <v>5</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G483" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H483" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>4052712</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E484" s="1">
+        <v>5</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H484" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A485" s="2">
+        <v>4052713</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E485" s="2">
+        <v>5</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G485" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H485" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>4052714</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E486" s="1">
+        <v>5</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H486" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A487" s="2">
+        <v>4052715</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E487" s="2">
+        <v>5</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G487" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H487" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>4052716</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E488" s="1">
+        <v>5</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H488" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A489" s="2">
+        <v>4052717</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E489" s="2">
+        <v>5</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G489" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H489" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>4052718</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E490" s="1">
+        <v>5</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A491" s="2">
+        <v>4052719</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E491" s="2">
+        <v>5</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G491" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H491" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>4052720</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E492" s="1">
+        <v>5</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A493" s="2">
+        <v>4052721</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E493" s="2">
+        <v>5</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G493" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H493" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>4052722</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E494" s="1">
+        <v>5</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A495" s="2">
+        <v>4052723</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E495" s="2">
+        <v>5</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G495" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H495" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>4052724</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E496" s="1">
+        <v>5</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H496" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A497" s="2">
+        <v>4052725</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E497" s="2">
+        <v>5</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G497" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H497" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>4052726</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E498" s="1">
+        <v>5</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H498" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A499" s="2">
+        <v>4052727</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E499" s="2">
+        <v>5</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G499" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H499" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>4052728</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E500" s="1">
+        <v>5</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H500" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A501" s="2">
+        <v>4052729</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E501" s="2">
+        <v>5</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G501" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H501" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>4052730</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E502" s="1">
+        <v>5</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H502" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A503" s="2">
+        <v>4072701</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D503" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E503" s="2">
+        <v>5</v>
+      </c>
+      <c r="F503" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G503" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H503" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>4072702</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E504" s="1">
+        <v>5</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H504" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A505" s="2">
+        <v>4072703</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E505" s="2">
+        <v>5</v>
+      </c>
+      <c r="F505" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G505" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H505" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>4072704</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E506" s="1">
+        <v>5</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H506" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A507" s="2">
+        <v>4082701</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E507" s="2">
+        <v>5</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G507" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H507" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>4082702</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E508" s="1">
+        <v>5</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H508" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A509" s="2">
+        <v>4082703</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E509" s="2">
+        <v>5</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G509" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H509" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>4082704</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E510" s="1">
+        <v>5</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H510" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A511" s="2">
+        <v>4082705</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E511" s="2">
+        <v>5</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G511" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H511" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>4082706</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E512" s="1">
+        <v>5</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H512" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A513" s="2">
+        <v>4082707</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E513" s="2">
+        <v>5</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G513" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H513" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>4082708</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E514" s="1">
+        <v>5</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H514" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A515" s="2">
+        <v>4082709</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E515" s="2">
+        <v>5</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G515" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H515" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A516" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B516" s="4"/>
+      <c r="C516" s="4"/>
+      <c r="D516" s="4"/>
+      <c r="E516" s="4"/>
+      <c r="F516" s="4"/>
+      <c r="G516" s="4"/>
+      <c r="H516" s="4"/>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A517" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B517" s="4"/>
+      <c r="C517" s="4"/>
+      <c r="D517" s="4"/>
+      <c r="E517" s="4"/>
+      <c r="F517" s="4"/>
+      <c r="G517" s="4"/>
+      <c r="H517" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A391:H391"/>
-    <mergeCell ref="A392:H392"/>
+    <mergeCell ref="A516:H516"/>
+    <mergeCell ref="A517:H517"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>